--- a/실무_엑셀_예제_파일/Chapter06/06-003.xlsx
+++ b/실무_엑셀_예제_파일/Chapter06/06-003.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\3. 피드백_수정\2차 피드백\정리 중인 예제 파일\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9E5D2C-32C2-45B2-9EE5-73DD849AC29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE12003-6CCB-4E13-917A-6D1C8BBE6166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="13884" windowHeight="12600" xr2:uid="{76177724-D468-435D-9D22-6CBD9426B912}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{76177724-D468-435D-9D22-6CBD9426B912}"/>
   </bookViews>
   <sheets>
     <sheet name="잘못된데이터" sheetId="1" r:id="rId1"/>
     <sheet name="올바른데이터" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="57">
   <si>
     <t>2013년</t>
   </si>
@@ -191,6 +195,45 @@
   <si>
     <t>(매출단위 : 만원)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>합계 : 매출액</t>
+  </si>
+  <si>
+    <t>열 레이블</t>
+  </si>
+  <si>
+    <t>합계 : 2013년</t>
+  </si>
+  <si>
+    <t>합계 : 2014년</t>
+  </si>
+  <si>
+    <t>합계 : 2015년</t>
+  </si>
+  <si>
+    <t>합계 : 2016년</t>
+  </si>
+  <si>
+    <t>합계 : 2017년</t>
+  </si>
+  <si>
+    <t>합계 : 2018년</t>
+  </si>
+  <si>
+    <t>합계 : 2019년</t>
+  </si>
+  <si>
+    <t>합계 : 2020년</t>
+  </si>
+  <si>
+    <t>합계 : 2021년</t>
   </si>
 </sst>
 </file>
@@ -200,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,7 +360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,28 +379,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,6 +408,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,6 +430,1011 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="황태훈" refreshedDate="45769.19950347222" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{703BDFD4-FAA2-4557-8E37-04C82640CC47}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B6:G78" sheet="올바른데이터"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="지점명" numFmtId="0">
+      <sharedItems count="8">
+        <s v="강남점"/>
+        <s v="서초점"/>
+        <s v="명동점"/>
+        <s v="일산점"/>
+        <s v="여의도점"/>
+        <s v="청량리점"/>
+        <s v="홍대점"/>
+        <s v="수원점"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="년도" numFmtId="0">
+      <sharedItems count="9">
+        <s v="2013년"/>
+        <s v="2014년"/>
+        <s v="2015년"/>
+        <s v="2016년"/>
+        <s v="2017년"/>
+        <s v="2018년"/>
+        <s v="2019년"/>
+        <s v="2020년"/>
+        <s v="2021년"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="매출액" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5792" maxValue="39875"/>
+    </cacheField>
+    <cacheField name="매출이익" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="314" maxValue="5503"/>
+    </cacheField>
+    <cacheField name="매출이익률" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9979375773408496E-2" maxValue="0.15003453038674033"/>
+    </cacheField>
+    <cacheField name="일평균방문수" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500" maxValue="995"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="황태훈" refreshedDate="45769.200660648145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{12F4FE2B-5818-40AD-BF5A-E2309930E158}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B6:K14" sheet="잘못된데이터"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="지점명" numFmtId="3">
+      <sharedItems count="8">
+        <s v="강남점"/>
+        <s v="서초점"/>
+        <s v="명동점"/>
+        <s v="일산점"/>
+        <s v="여의도점"/>
+        <s v="청량리점"/>
+        <s v="홍대점"/>
+        <s v="수원점"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="2013년" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6725" maxValue="33735"/>
+    </cacheField>
+    <cacheField name="2014년" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12744" maxValue="39875"/>
+    </cacheField>
+    <cacheField name="2015년" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8591" maxValue="37762"/>
+    </cacheField>
+    <cacheField name="2016년" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5792" maxValue="38130"/>
+    </cacheField>
+    <cacheField name="2017년" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5841" maxValue="38738"/>
+    </cacheField>
+    <cacheField name="2018년" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11486" maxValue="39188"/>
+    </cacheField>
+    <cacheField name="2019년" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6361" maxValue="37659"/>
+    </cacheField>
+    <cacheField name="2020년" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11410" maxValue="37274"/>
+    </cacheField>
+    <cacheField name="2021년" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10526" maxValue="33904"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8207"/>
+    <n v="739"/>
+    <n v="9.0045083465334477E-2"/>
+    <n v="845"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="30911"/>
+    <n v="3709"/>
+    <n v="0.11998964769823041"/>
+    <n v="879"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="15190"/>
+    <n v="1671"/>
+    <n v="0.11000658327847268"/>
+    <n v="899"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="13038"/>
+    <n v="1956"/>
+    <n v="0.1500230096640589"/>
+    <n v="501"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="28736"/>
+    <n v="3448"/>
+    <n v="0.11998886414253898"/>
+    <n v="972"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="30248"/>
+    <n v="4235"/>
+    <n v="0.14000925681036763"/>
+    <n v="718"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="8250"/>
+    <n v="660"/>
+    <n v="0.08"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="26200"/>
+    <n v="3668"/>
+    <n v="0.14000000000000001"/>
+    <n v="946"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="19491"/>
+    <n v="2144"/>
+    <n v="0.1099994869426915"/>
+    <n v="847"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="6725"/>
+    <n v="874"/>
+    <n v="0.1299628252788104"/>
+    <n v="516"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="38360"/>
+    <n v="3069"/>
+    <n v="8.0005213764337849E-2"/>
+    <n v="878"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="9153"/>
+    <n v="824"/>
+    <n v="9.0025128373210972E-2"/>
+    <n v="995"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="25565"/>
+    <n v="1278"/>
+    <n v="4.9990221005280659E-2"/>
+    <n v="793"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="38738"/>
+    <n v="2712"/>
+    <n v="7.0008776911559711E-2"/>
+    <n v="653"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="33387"/>
+    <n v="1669"/>
+    <n v="4.9989516877826698E-2"/>
+    <n v="616"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="10840"/>
+    <n v="976"/>
+    <n v="9.0036900369003692E-2"/>
+    <n v="936"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="33182"/>
+    <n v="4645"/>
+    <n v="0.13998553432583932"/>
+    <n v="736"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="10526"/>
+    <n v="1579"/>
+    <n v="0.15000950028500856"/>
+    <n v="655"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7045"/>
+    <n v="705"/>
+    <n v="0.10007097232079488"/>
+    <n v="520"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="33566"/>
+    <n v="5035"/>
+    <n v="0.15000297920514807"/>
+    <n v="724"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="27176"/>
+    <n v="2174"/>
+    <n v="7.9997056226081831E-2"/>
+    <n v="570"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="5792"/>
+    <n v="869"/>
+    <n v="0.15003453038674033"/>
+    <n v="569"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="6793"/>
+    <n v="340"/>
+    <n v="5.005152362726336E-2"/>
+    <n v="583"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="36686"/>
+    <n v="5503"/>
+    <n v="0.15000272583546856"/>
+    <n v="562"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="6361"/>
+    <n v="382"/>
+    <n v="6.0053450715296337E-2"/>
+    <n v="741"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="24821"/>
+    <n v="3723"/>
+    <n v="0.14999395673018814"/>
+    <n v="911"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="33904"/>
+    <n v="3729"/>
+    <n v="0.10998702218027372"/>
+    <n v="967"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="33735"/>
+    <n v="4386"/>
+    <n v="0.13001333926189418"/>
+    <n v="748"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="22980"/>
+    <n v="2528"/>
+    <n v="0.11000870322019148"/>
+    <n v="885"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="8591"/>
+    <n v="773"/>
+    <n v="8.9977883831917127E-2"/>
+    <n v="878"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="11273"/>
+    <n v="1465"/>
+    <n v="0.12995653330967799"/>
+    <n v="691"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="6279"/>
+    <n v="314"/>
+    <n v="5.0007963051441312E-2"/>
+    <n v="658"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="17497"/>
+    <n v="2100"/>
+    <n v="0.1200205749557067"/>
+    <n v="746"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="16961"/>
+    <n v="1018"/>
+    <n v="6.0020045987854487E-2"/>
+    <n v="962"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="14531"/>
+    <n v="1598"/>
+    <n v="0.10997178446080792"/>
+    <n v="705"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="29599"/>
+    <n v="2368"/>
+    <n v="8.0002702794013308E-2"/>
+    <n v="570"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="15392"/>
+    <n v="1539"/>
+    <n v="9.9987006237006237E-2"/>
+    <n v="555"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="39875"/>
+    <n v="3589"/>
+    <n v="9.0006269592476484E-2"/>
+    <n v="865"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="17142"/>
+    <n v="1371"/>
+    <n v="7.9978998949947491E-2"/>
+    <n v="867"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="33396"/>
+    <n v="4341"/>
+    <n v="0.12998562702120015"/>
+    <n v="725"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="31814"/>
+    <n v="2863"/>
+    <n v="8.9991827497328217E-2"/>
+    <n v="590"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="39188"/>
+    <n v="2743"/>
+    <n v="6.9995917117484943E-2"/>
+    <n v="711"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="8658"/>
+    <n v="866"/>
+    <n v="0.10002310002310003"/>
+    <n v="759"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="11410"/>
+    <n v="1141"/>
+    <n v="0.1"/>
+    <n v="575"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="19596"/>
+    <n v="2352"/>
+    <n v="0.12002449479485609"/>
+    <n v="773"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="14546"/>
+    <n v="727"/>
+    <n v="4.9979375773408496E-2"/>
+    <n v="585"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="35447"/>
+    <n v="1772"/>
+    <n v="4.9990126103760545E-2"/>
+    <n v="644"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="37762"/>
+    <n v="2643"/>
+    <n v="6.999099623960596E-2"/>
+    <n v="873"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="38130"/>
+    <n v="3050"/>
+    <n v="7.9989509572515077E-2"/>
+    <n v="696"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="20552"/>
+    <n v="2055"/>
+    <n v="9.9990268586998832E-2"/>
+    <n v="502"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="11486"/>
+    <n v="1149"/>
+    <n v="0.10003482500435312"/>
+    <n v="692"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="8645"/>
+    <n v="605"/>
+    <n v="6.9982648930017349E-2"/>
+    <n v="907"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="19405"/>
+    <n v="1552"/>
+    <n v="7.9979386755990728E-2"/>
+    <n v="562"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <n v="32969"/>
+    <n v="4616"/>
+    <n v="0.14001031271800782"/>
+    <n v="977"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="29925"/>
+    <n v="2095"/>
+    <n v="7.0008354218880534E-2"/>
+    <n v="651"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="12744"/>
+    <n v="1402"/>
+    <n v="0.11001255492780916"/>
+    <n v="780"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="25757"/>
+    <n v="1803"/>
+    <n v="7.0000388243972506E-2"/>
+    <n v="564"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="35888"/>
+    <n v="2871"/>
+    <n v="7.9998885421310742E-2"/>
+    <n v="960"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="24006"/>
+    <n v="1440"/>
+    <n v="5.9985003749062737E-2"/>
+    <n v="909"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="19146"/>
+    <n v="1340"/>
+    <n v="6.9988509349211317E-2"/>
+    <n v="983"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="12337"/>
+    <n v="1480"/>
+    <n v="0.11996433492745399"/>
+    <n v="847"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <n v="37274"/>
+    <n v="2236"/>
+    <n v="5.9988195525030853E-2"/>
+    <n v="929"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+    <n v="16048"/>
+    <n v="1284"/>
+    <n v="8.0009970089730806E-2"/>
+    <n v="877"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="29688"/>
+    <n v="4453"/>
+    <n v="0.14999326327135543"/>
+    <n v="989"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="19653"/>
+    <n v="2751"/>
+    <n v="0.13997862921691345"/>
+    <n v="706"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="12403"/>
+    <n v="1612"/>
+    <n v="0.12996855599451745"/>
+    <n v="830"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="16928"/>
+    <n v="1016"/>
+    <n v="6.0018903591682417E-2"/>
+    <n v="597"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="5841"/>
+    <n v="818"/>
+    <n v="0.14004451292586886"/>
+    <n v="942"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="31658"/>
+    <n v="4116"/>
+    <n v="0.1300145302925011"/>
+    <n v="714"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="37659"/>
+    <n v="5272"/>
+    <n v="0.13999309593988157"/>
+    <n v="624"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="33493"/>
+    <n v="4354"/>
+    <n v="0.12999731287134625"/>
+    <n v="905"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <n v="18400"/>
+    <n v="1656"/>
+    <n v="0.09"/>
+    <n v="877"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <x v="0"/>
+    <n v="8207"/>
+    <n v="30911"/>
+    <n v="15190"/>
+    <n v="13038"/>
+    <n v="28736"/>
+    <n v="30248"/>
+    <n v="8250"/>
+    <n v="26200"/>
+    <n v="19491"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6725"/>
+    <n v="38360"/>
+    <n v="9153"/>
+    <n v="25565"/>
+    <n v="38738"/>
+    <n v="33387"/>
+    <n v="10840"/>
+    <n v="33182"/>
+    <n v="10526"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7045"/>
+    <n v="33566"/>
+    <n v="27176"/>
+    <n v="5792"/>
+    <n v="6793"/>
+    <n v="36686"/>
+    <n v="6361"/>
+    <n v="24821"/>
+    <n v="33904"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="33735"/>
+    <n v="22980"/>
+    <n v="8591"/>
+    <n v="11273"/>
+    <n v="6279"/>
+    <n v="17497"/>
+    <n v="16961"/>
+    <n v="14531"/>
+    <n v="29599"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="15392"/>
+    <n v="39875"/>
+    <n v="17142"/>
+    <n v="33396"/>
+    <n v="31814"/>
+    <n v="39188"/>
+    <n v="8658"/>
+    <n v="11410"/>
+    <n v="19596"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="14546"/>
+    <n v="35447"/>
+    <n v="37762"/>
+    <n v="38130"/>
+    <n v="20552"/>
+    <n v="11486"/>
+    <n v="8645"/>
+    <n v="19405"/>
+    <n v="32969"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="29925"/>
+    <n v="12744"/>
+    <n v="25757"/>
+    <n v="35888"/>
+    <n v="24006"/>
+    <n v="19146"/>
+    <n v="12337"/>
+    <n v="37274"/>
+    <n v="16048"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="29688"/>
+    <n v="19653"/>
+    <n v="12403"/>
+    <n v="16928"/>
+    <n v="5841"/>
+    <n v="31658"/>
+    <n v="37659"/>
+    <n v="33493"/>
+    <n v="18400"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E4765DF-BE35-4964-8FF7-C5C486BDC4BF}" name="피벗 테이블2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M6:V15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+  </colItems>
+  <dataFields count="9">
+    <dataField name="합계 : 2013년" fld="1" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="합계 : 2014년" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="합계 : 2015년" fld="3" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="합계 : 2016년" fld="4" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="합계 : 2017년" fld="5" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="합계 : 2018년" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="합계 : 2019년" fld="7" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="합계 : 2020년" fld="8" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="합계 : 2021년" fld="9" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E578906-F8C7-487F-91D2-1BED93304017}" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I6:N16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 매출액" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,19 +1734,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E6B04C-CED3-48D6-ACE5-F50C453C195B}">
-  <dimension ref="B1:K14"/>
+  <dimension ref="B1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18" thickBot="1"/>
-    <row r="2" spans="2:11" ht="21.6" customHeight="1" thickBot="1">
+    <row r="1" spans="2:22" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:22" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
@@ -706,16 +1764,16 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1"/>
-    <row r="4" spans="2:11" ht="16.8" customHeight="1">
+    <row r="3" spans="2:22" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="2.4" customHeight="1">
+    <row r="5" spans="2:22" ht="2.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
@@ -746,8 +1804,38 @@
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="M6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -778,8 +1866,38 @@
       <c r="K7" s="4">
         <v>19491</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="M7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="2">
+        <v>8207</v>
+      </c>
+      <c r="O7" s="2">
+        <v>30911</v>
+      </c>
+      <c r="P7" s="2">
+        <v>15190</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>13038</v>
+      </c>
+      <c r="R7" s="2">
+        <v>28736</v>
+      </c>
+      <c r="S7" s="2">
+        <v>30248</v>
+      </c>
+      <c r="T7" s="2">
+        <v>8250</v>
+      </c>
+      <c r="U7" s="2">
+        <v>26200</v>
+      </c>
+      <c r="V7" s="2">
+        <v>19491</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -810,8 +1928,38 @@
       <c r="K8" s="4">
         <v>10526</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="M8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="2">
+        <v>7045</v>
+      </c>
+      <c r="O8" s="2">
+        <v>33566</v>
+      </c>
+      <c r="P8" s="2">
+        <v>27176</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>5792</v>
+      </c>
+      <c r="R8" s="2">
+        <v>6793</v>
+      </c>
+      <c r="S8" s="2">
+        <v>36686</v>
+      </c>
+      <c r="T8" s="2">
+        <v>6361</v>
+      </c>
+      <c r="U8" s="2">
+        <v>24821</v>
+      </c>
+      <c r="V8" s="2">
+        <v>33904</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
@@ -842,8 +1990,38 @@
       <c r="K9" s="4">
         <v>33904</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="M9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6725</v>
+      </c>
+      <c r="O9" s="2">
+        <v>38360</v>
+      </c>
+      <c r="P9" s="2">
+        <v>9153</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>25565</v>
+      </c>
+      <c r="R9" s="2">
+        <v>38738</v>
+      </c>
+      <c r="S9" s="2">
+        <v>33387</v>
+      </c>
+      <c r="T9" s="2">
+        <v>10840</v>
+      </c>
+      <c r="U9" s="2">
+        <v>33182</v>
+      </c>
+      <c r="V9" s="2">
+        <v>10526</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
@@ -874,8 +2052,38 @@
       <c r="K10" s="4">
         <v>29599</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="M10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="2">
+        <v>29688</v>
+      </c>
+      <c r="O10" s="2">
+        <v>19653</v>
+      </c>
+      <c r="P10" s="2">
+        <v>12403</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>16928</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5841</v>
+      </c>
+      <c r="S10" s="2">
+        <v>31658</v>
+      </c>
+      <c r="T10" s="2">
+        <v>37659</v>
+      </c>
+      <c r="U10" s="2">
+        <v>33493</v>
+      </c>
+      <c r="V10" s="2">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
@@ -906,8 +2114,38 @@
       <c r="K11" s="4">
         <v>19596</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="M11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="2">
+        <v>15392</v>
+      </c>
+      <c r="O11" s="2">
+        <v>39875</v>
+      </c>
+      <c r="P11" s="2">
+        <v>17142</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>33396</v>
+      </c>
+      <c r="R11" s="2">
+        <v>31814</v>
+      </c>
+      <c r="S11" s="2">
+        <v>39188</v>
+      </c>
+      <c r="T11" s="2">
+        <v>8658</v>
+      </c>
+      <c r="U11" s="2">
+        <v>11410</v>
+      </c>
+      <c r="V11" s="2">
+        <v>19596</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
@@ -938,8 +2176,38 @@
       <c r="K12" s="4">
         <v>32969</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="M12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="2">
+        <v>33735</v>
+      </c>
+      <c r="O12" s="2">
+        <v>22980</v>
+      </c>
+      <c r="P12" s="2">
+        <v>8591</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>11273</v>
+      </c>
+      <c r="R12" s="2">
+        <v>6279</v>
+      </c>
+      <c r="S12" s="2">
+        <v>17497</v>
+      </c>
+      <c r="T12" s="2">
+        <v>16961</v>
+      </c>
+      <c r="U12" s="2">
+        <v>14531</v>
+      </c>
+      <c r="V12" s="2">
+        <v>29599</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -970,8 +2238,38 @@
       <c r="K13" s="4">
         <v>16048</v>
       </c>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="M13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2">
+        <v>14546</v>
+      </c>
+      <c r="O13" s="2">
+        <v>35447</v>
+      </c>
+      <c r="P13" s="2">
+        <v>37762</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>38130</v>
+      </c>
+      <c r="R13" s="2">
+        <v>20552</v>
+      </c>
+      <c r="S13" s="2">
+        <v>11486</v>
+      </c>
+      <c r="T13" s="2">
+        <v>8645</v>
+      </c>
+      <c r="U13" s="2">
+        <v>19405</v>
+      </c>
+      <c r="V13" s="2">
+        <v>32969</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1001,6 +2299,68 @@
       </c>
       <c r="K14" s="4">
         <v>18400</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="2">
+        <v>29925</v>
+      </c>
+      <c r="O14" s="2">
+        <v>12744</v>
+      </c>
+      <c r="P14" s="2">
+        <v>25757</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>35888</v>
+      </c>
+      <c r="R14" s="2">
+        <v>24006</v>
+      </c>
+      <c r="S14" s="2">
+        <v>19146</v>
+      </c>
+      <c r="T14" s="2">
+        <v>12337</v>
+      </c>
+      <c r="U14" s="2">
+        <v>37274</v>
+      </c>
+      <c r="V14" s="2">
+        <v>16048</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="M15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="2">
+        <v>145263</v>
+      </c>
+      <c r="O15" s="2">
+        <v>233536</v>
+      </c>
+      <c r="P15" s="2">
+        <v>153174</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>180010</v>
+      </c>
+      <c r="R15" s="2">
+        <v>162759</v>
+      </c>
+      <c r="S15" s="2">
+        <v>219296</v>
+      </c>
+      <c r="T15" s="2">
+        <v>109711</v>
+      </c>
+      <c r="U15" s="2">
+        <v>200316</v>
+      </c>
+      <c r="V15" s="2">
+        <v>180533</v>
       </c>
     </row>
   </sheetData>
@@ -1014,21 +2374,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01165CF1-A5B6-4E19-8ADC-07AE43AEF6EA}">
-  <dimension ref="B1:K78"/>
+  <dimension ref="B1:N78"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" style="5" customWidth="1"/>
-    <col min="4" max="6" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="5" customWidth="1"/>
+    <col min="4" max="6" width="12.4140625" customWidth="1"/>
     <col min="7" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18" thickBot="1"/>
-    <row r="2" spans="2:11" ht="21.6" customHeight="1" thickBot="1">
+    <row r="1" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:14" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>37</v>
       </c>
@@ -1038,18 +2404,18 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1"/>
-    <row r="4" spans="2:11" ht="14.4" customHeight="1">
+    <row r="3" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" ht="3" customHeight="1">
+    <row r="5" spans="2:14" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
@@ -1068,8 +2434,14 @@
       <c r="G6" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="I6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
@@ -1088,8 +2460,26 @@
       <c r="G7" s="2">
         <v>845</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="I7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1108,8 +2498,26 @@
       <c r="G8" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="I8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8207</v>
+      </c>
+      <c r="K8" s="2">
+        <v>15190</v>
+      </c>
+      <c r="L8" s="2">
+        <v>28736</v>
+      </c>
+      <c r="M8" s="2">
+        <v>8250</v>
+      </c>
+      <c r="N8" s="2">
+        <v>60383</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1128,8 +2536,26 @@
       <c r="G9" s="2">
         <v>899</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="I9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7045</v>
+      </c>
+      <c r="K9" s="2">
+        <v>27176</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6793</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6361</v>
+      </c>
+      <c r="N9" s="2">
+        <v>47375</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1148,8 +2574,26 @@
       <c r="G10" s="2">
         <v>501</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="I10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6725</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9153</v>
+      </c>
+      <c r="L10" s="2">
+        <v>38738</v>
+      </c>
+      <c r="M10" s="2">
+        <v>10840</v>
+      </c>
+      <c r="N10" s="2">
+        <v>65456</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1168,8 +2612,26 @@
       <c r="G11" s="2">
         <v>972</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="I11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2">
+        <v>29688</v>
+      </c>
+      <c r="K11" s="2">
+        <v>12403</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5841</v>
+      </c>
+      <c r="M11" s="2">
+        <v>37659</v>
+      </c>
+      <c r="N11" s="2">
+        <v>85591</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1188,8 +2650,26 @@
       <c r="G12" s="2">
         <v>718</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="I12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2">
+        <v>15392</v>
+      </c>
+      <c r="K12" s="2">
+        <v>17142</v>
+      </c>
+      <c r="L12" s="2">
+        <v>31814</v>
+      </c>
+      <c r="M12" s="2">
+        <v>8658</v>
+      </c>
+      <c r="N12" s="2">
+        <v>73006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
@@ -1208,8 +2688,26 @@
       <c r="G13" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="I13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2">
+        <v>33735</v>
+      </c>
+      <c r="K13" s="2">
+        <v>8591</v>
+      </c>
+      <c r="L13" s="2">
+        <v>6279</v>
+      </c>
+      <c r="M13" s="2">
+        <v>16961</v>
+      </c>
+      <c r="N13" s="2">
+        <v>65566</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
@@ -1228,8 +2726,26 @@
       <c r="G14" s="2">
         <v>946</v>
       </c>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="I14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2">
+        <v>14546</v>
+      </c>
+      <c r="K14" s="2">
+        <v>37762</v>
+      </c>
+      <c r="L14" s="2">
+        <v>20552</v>
+      </c>
+      <c r="M14" s="2">
+        <v>8645</v>
+      </c>
+      <c r="N14" s="2">
+        <v>81505</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
@@ -1248,8 +2764,26 @@
       <c r="G15" s="2">
         <v>847</v>
       </c>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="I15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="2">
+        <v>29925</v>
+      </c>
+      <c r="K15" s="2">
+        <v>25757</v>
+      </c>
+      <c r="L15" s="2">
+        <v>24006</v>
+      </c>
+      <c r="M15" s="2">
+        <v>12337</v>
+      </c>
+      <c r="N15" s="2">
+        <v>92025</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
@@ -1268,8 +2802,26 @@
       <c r="G16" s="2">
         <v>516</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="I16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="2">
+        <v>145263</v>
+      </c>
+      <c r="K16" s="2">
+        <v>153174</v>
+      </c>
+      <c r="L16" s="2">
+        <v>162759</v>
+      </c>
+      <c r="M16" s="2">
+        <v>109711</v>
+      </c>
+      <c r="N16" s="2">
+        <v>570907</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +2841,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
@@ -1309,7 +2861,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1329,7 +2881,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1349,7 +2901,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1369,7 +2921,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1389,7 +2941,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
@@ -1409,7 +2961,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1429,7 +2981,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1449,7 +3001,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
@@ -1469,7 +3021,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1489,7 +3041,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +3061,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
@@ -1529,7 +3081,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="s">
         <v>22</v>
       </c>
@@ -1549,7 +3101,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
@@ -1569,7 +3121,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>22</v>
       </c>
@@ -1589,7 +3141,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
         <v>22</v>
       </c>
@@ -1609,7 +3161,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
         <v>20</v>
       </c>
@@ -1629,7 +3181,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
@@ -1649,7 +3201,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
         <v>20</v>
       </c>
@@ -1669,7 +3221,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="6" t="s">
         <v>20</v>
       </c>
@@ -1689,7 +3241,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="6" t="s">
         <v>20</v>
       </c>
@@ -1709,7 +3261,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="6" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +3281,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="6" t="s">
         <v>20</v>
       </c>
@@ -1749,7 +3301,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="6" t="s">
         <v>20</v>
       </c>
@@ -1769,7 +3321,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="6" t="s">
         <v>20</v>
       </c>
@@ -1789,7 +3341,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="6" t="s">
         <v>28</v>
       </c>
@@ -1809,7 +3361,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="6" t="s">
         <v>28</v>
       </c>
@@ -1829,7 +3381,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B45" s="6" t="s">
         <v>28</v>
       </c>
@@ -1849,7 +3401,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B46" s="6" t="s">
         <v>28</v>
       </c>
@@ -1869,7 +3421,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B47" s="6" t="s">
         <v>28</v>
       </c>
@@ -1889,7 +3441,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B48" s="6" t="s">
         <v>28</v>
       </c>
@@ -1909,7 +3461,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B49" s="6" t="s">
         <v>28</v>
       </c>
@@ -1929,7 +3481,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B50" s="6" t="s">
         <v>28</v>
       </c>
@@ -1949,7 +3501,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B51" s="6" t="s">
         <v>28</v>
       </c>
@@ -1969,7 +3521,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B52" s="6" t="s">
         <v>30</v>
       </c>
@@ -1989,7 +3541,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B53" s="6" t="s">
         <v>30</v>
       </c>
@@ -2009,7 +3561,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B54" s="6" t="s">
         <v>30</v>
       </c>
@@ -2029,7 +3581,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B55" s="6" t="s">
         <v>30</v>
       </c>
@@ -2049,7 +3601,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B56" s="6" t="s">
         <v>30</v>
       </c>
@@ -2069,7 +3621,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B57" s="6" t="s">
         <v>30</v>
       </c>
@@ -2089,7 +3641,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B58" s="6" t="s">
         <v>30</v>
       </c>
@@ -2109,7 +3661,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B59" s="6" t="s">
         <v>30</v>
       </c>
@@ -2129,7 +3681,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B60" s="6" t="s">
         <v>30</v>
       </c>
@@ -2149,7 +3701,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B61" s="6" t="s">
         <v>32</v>
       </c>
@@ -2169,7 +3721,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B62" s="6" t="s">
         <v>32</v>
       </c>
@@ -2189,7 +3741,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B63" s="6" t="s">
         <v>32</v>
       </c>
@@ -2209,7 +3761,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
@@ -2229,7 +3781,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B65" s="6" t="s">
         <v>32</v>
       </c>
@@ -2249,7 +3801,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B66" s="6" t="s">
         <v>32</v>
       </c>
@@ -2269,7 +3821,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B67" s="6" t="s">
         <v>32</v>
       </c>
@@ -2289,7 +3841,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B68" s="6" t="s">
         <v>32</v>
       </c>
@@ -2309,7 +3861,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B69" s="6" t="s">
         <v>32</v>
       </c>
@@ -2329,7 +3881,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B70" s="6" t="s">
         <v>34</v>
       </c>
@@ -2349,7 +3901,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B71" s="6" t="s">
         <v>34</v>
       </c>
@@ -2369,7 +3921,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B72" s="6" t="s">
         <v>34</v>
       </c>
@@ -2389,7 +3941,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B73" s="6" t="s">
         <v>34</v>
       </c>
@@ -2409,7 +3961,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B74" s="6" t="s">
         <v>34</v>
       </c>
@@ -2429,7 +3981,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B75" s="6" t="s">
         <v>34</v>
       </c>
@@ -2449,7 +4001,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B76" s="6" t="s">
         <v>34</v>
       </c>
@@ -2469,7 +4021,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B77" s="6" t="s">
         <v>34</v>
       </c>
@@ -2489,7 +4041,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B78" s="6" t="s">
         <v>34</v>
       </c>
